--- a/DayWiseConente.xlsx
+++ b/DayWiseConente.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JFST124\Day3\FirstRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F526CAF8-8A1B-481F-B637-701511E35302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A464491-7064-40B2-9021-172EA9AD602A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D04D2797-0940-44A3-AF0A-8BCE4B9779F6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="98">
   <si>
     <t>Day1</t>
   </si>
@@ -388,6 +388,12 @@
   </si>
   <si>
     <t>JDBC</t>
+  </si>
+  <si>
+    <t>Data Structres</t>
+  </si>
+  <si>
+    <t>Genarics</t>
   </si>
 </sst>
 </file>
@@ -793,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A50B4F-F5E0-4E59-AF30-46E2CF7E1AC0}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1120,9 +1126,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>97</v>
+      </c>
+    </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
         <v>93</v>
+      </c>
+      <c r="E48" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.3">

--- a/DayWiseConente.xlsx
+++ b/DayWiseConente.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JFST124\Day3\FirstRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A464491-7064-40B2-9021-172EA9AD602A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905F4DFB-2F49-43C0-96BB-965E3217644F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D04D2797-0940-44A3-AF0A-8BCE4B9779F6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="121">
   <si>
     <t>Day1</t>
   </si>
@@ -394,6 +394,75 @@
   </si>
   <si>
     <t>Genarics</t>
+  </si>
+  <si>
+    <t>Started</t>
+  </si>
+  <si>
+    <t>Wrapper Classes</t>
+  </si>
+  <si>
+    <t>Converting primitive types into objects</t>
+  </si>
+  <si>
+    <t>AutoBoxing and Unboding</t>
+  </si>
+  <si>
+    <t>Arraylist</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Insertion</t>
+  </si>
+  <si>
+    <t>LinkedList</t>
+  </si>
+  <si>
+    <t>HashSet</t>
+  </si>
+  <si>
+    <t>Randam</t>
+  </si>
+  <si>
+    <t>LinkedHashSet</t>
+  </si>
+  <si>
+    <t>TreeSet</t>
+  </si>
+  <si>
+    <t>Assending</t>
+  </si>
+  <si>
+    <t>Duplicate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparable </t>
+  </si>
+  <si>
+    <t>java.lang package</t>
+  </si>
+  <si>
+    <t>CompareTo()</t>
+  </si>
+  <si>
+    <t>Used for single column sorting</t>
+  </si>
+  <si>
+    <t>Comparator</t>
+  </si>
+  <si>
+    <t>java.util</t>
+  </si>
+  <si>
+    <t>compare()</t>
+  </si>
+  <si>
+    <t>Multi column soarting</t>
+  </si>
+  <si>
+    <t>ArrayList,LinkedList, HashSEt, LinkedHashSet and TreeSEt, Comperable and comparator, Array, Colleciton</t>
   </si>
 </sst>
 </file>
@@ -465,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -483,6 +552,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -797,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A50B4F-F5E0-4E59-AF30-46E2CF7E1AC0}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1116,46 +1186,78 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D45" t="s">
-        <v>48</v>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D46" t="s">
-        <v>49</v>
+      <c r="A46" s="1">
+        <v>45302</v>
+      </c>
+      <c r="B46" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
-        <v>97</v>
+        <v>93</v>
+      </c>
+      <c r="E47" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E48" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D50" t="s">
+    <row r="58" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D58" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D51" t="s">
+    <row r="59" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D52" t="s">
+    <row r="60" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1170,16 +1272,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA76227-E3EE-4404-82DF-61B51859117F}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A19" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.88671875" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
     <col min="3" max="3" width="13.5546875" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" customWidth="1"/>
     <col min="5" max="5" width="24.88671875" customWidth="1"/>
@@ -1428,6 +1530,97 @@
       </c>
       <c r="E16" s="5" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/DayWiseConente.xlsx
+++ b/DayWiseConente.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JFST124\Day3\FirstRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905F4DFB-2F49-43C0-96BB-965E3217644F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E365446-1320-42D5-926A-64DBC56033D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D04D2797-0940-44A3-AF0A-8BCE4B9779F6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="125">
   <si>
     <t>Day1</t>
   </si>
@@ -462,7 +462,19 @@
     <t>Multi column soarting</t>
   </si>
   <si>
-    <t>ArrayList,LinkedList, HashSEt, LinkedHashSet and TreeSEt, Comperable and comparator, Array, Colleciton</t>
+    <t>ArrayList,LinkedList, HashSEt, LinkedHashSet and TreeSEt, Comperable and comparator, Array, Collecitons</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>HashTable,HashMap and TreeMap, Properties</t>
+  </si>
+  <si>
+    <t>Use-Case</t>
   </si>
 </sst>
 </file>
@@ -534,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -552,7 +564,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -867,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A50B4F-F5E0-4E59-AF30-46E2CF7E1AC0}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1201,6 +1212,9 @@
       <c r="B46" t="s">
         <v>90</v>
       </c>
+      <c r="C46" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
@@ -1218,7 +1232,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>99</v>
       </c>
@@ -1226,38 +1240,59 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E50" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D53" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>121</v>
+      </c>
+      <c r="E51" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>45303</v>
+      </c>
+      <c r="C54" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D62" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D54" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D57" t="s">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D66" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D58" t="s">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D67" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D59" t="s">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D68" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D60" t="s">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D69" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1533,7 +1568,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C18" t="s">
@@ -1541,10 +1576,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="3" t="s">
         <v>104</v>
       </c>
       <c r="C19" t="s">
@@ -1552,10 +1587,10 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="3" t="s">
         <v>104</v>
       </c>
       <c r="C20" t="s">
@@ -1563,10 +1598,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="3" t="s">
         <v>107</v>
       </c>
       <c r="C21" t="s">
@@ -1574,10 +1609,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="3" t="s">
         <v>104</v>
       </c>
       <c r="C22" t="s">
@@ -1585,10 +1620,10 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C23" t="s">
@@ -1596,10 +1631,10 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="3" t="s">
         <v>113</v>
       </c>
       <c r="C24" t="s">
@@ -1610,10 +1645,10 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C25" t="s">

--- a/DayWiseConente.xlsx
+++ b/DayWiseConente.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JFST124\Day3\FirstRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E365446-1320-42D5-926A-64DBC56033D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9C1FFE-1ECC-4FBB-B36A-378A740858C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D04D2797-0940-44A3-AF0A-8BCE4B9779F6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D04D2797-0940-44A3-AF0A-8BCE4B9779F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Java" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="134">
   <si>
     <t>Day1</t>
   </si>
@@ -475,6 +475,33 @@
   </si>
   <si>
     <t>Use-Case</t>
+  </si>
+  <si>
+    <t>Day7</t>
+  </si>
+  <si>
+    <t>Day8</t>
+  </si>
+  <si>
+    <t>Day9</t>
+  </si>
+  <si>
+    <t>Java 8 New Features</t>
+  </si>
+  <si>
+    <t>Functional Interface</t>
+  </si>
+  <si>
+    <t>Stream API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default Methods </t>
+  </si>
+  <si>
+    <t>Date and Time API</t>
+  </si>
+  <si>
+    <t>Lamda Exressions</t>
   </si>
 </sst>
 </file>
@@ -880,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A50B4F-F5E0-4E59-AF30-46E2CF7E1AC0}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1210,7 +1237,7 @@
         <v>45302</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="C46" t="s">
         <v>93</v>
@@ -1262,18 +1289,58 @@
       <c r="A54" s="1">
         <v>45303</v>
       </c>
+      <c r="B54" t="s">
+        <v>126</v>
+      </c>
       <c r="C54" t="s">
         <v>124</v>
       </c>
     </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>45307</v>
+      </c>
+      <c r="B57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D58" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>129</v>
+      </c>
+      <c r="E59" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
+        <v>131</v>
+      </c>
+    </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D63" t="s">
-        <v>49</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="4:4" x14ac:dyDescent="0.3">
@@ -1309,8 +1376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA76227-E3EE-4404-82DF-61B51859117F}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/DayWiseConente.xlsx
+++ b/DayWiseConente.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JFST124\Day3\FirstRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9C1FFE-1ECC-4FBB-B36A-378A740858C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996BD785-C841-4165-8279-8AF6B196DA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D04D2797-0940-44A3-AF0A-8BCE4B9779F6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D04D2797-0940-44A3-AF0A-8BCE4B9779F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Java" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="166">
   <si>
     <t>Day1</t>
   </si>
@@ -503,12 +503,108 @@
   <si>
     <t>Lamda Exressions</t>
   </si>
+  <si>
+    <t>stream</t>
+  </si>
+  <si>
+    <t>Intermediate Operations</t>
+  </si>
+  <si>
+    <t>Terminal operations</t>
+  </si>
+  <si>
+    <t>stream()</t>
+  </si>
+  <si>
+    <t>concat()</t>
+  </si>
+  <si>
+    <t>empty()</t>
+  </si>
+  <si>
+    <t>generate()</t>
+  </si>
+  <si>
+    <t>iterate()</t>
+  </si>
+  <si>
+    <t>of()</t>
+  </si>
+  <si>
+    <t>filter()</t>
+  </si>
+  <si>
+    <t>map()</t>
+  </si>
+  <si>
+    <t>flatMap()</t>
+  </si>
+  <si>
+    <t>distinct()</t>
+  </si>
+  <si>
+    <t>sorted()</t>
+  </si>
+  <si>
+    <t>peek()</t>
+  </si>
+  <si>
+    <t>limit()</t>
+  </si>
+  <si>
+    <t>skip()</t>
+  </si>
+  <si>
+    <t>forEach()</t>
+  </si>
+  <si>
+    <t>forEachOrdered()</t>
+  </si>
+  <si>
+    <t>toArray()</t>
+  </si>
+  <si>
+    <t>reduce()</t>
+  </si>
+  <si>
+    <t>collect()</t>
+  </si>
+  <si>
+    <t>min()</t>
+  </si>
+  <si>
+    <t>max()</t>
+  </si>
+  <si>
+    <t>count()</t>
+  </si>
+  <si>
+    <t>anyMatch()</t>
+  </si>
+  <si>
+    <t>allMatch()</t>
+  </si>
+  <si>
+    <t>noneMatch</t>
+  </si>
+  <si>
+    <t>findFirst()</t>
+  </si>
+  <si>
+    <t>Stream</t>
+  </si>
+  <si>
+    <t>Collectors</t>
+  </si>
+  <si>
+    <t>findAny()</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,6 +629,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -573,7 +676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -591,6 +694,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -905,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A50B4F-F5E0-4E59-AF30-46E2CF7E1AC0}">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1328,19 +1432,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D60" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D61" t="s">
-        <v>131</v>
-      </c>
-    </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D62" t="s">
-        <v>132</v>
+      <c r="A62" s="1">
+        <v>45308</v>
       </c>
     </row>
     <row r="66" spans="4:4" x14ac:dyDescent="0.3">
@@ -1361,6 +1455,21 @@
     <row r="69" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D70" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D71" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D72" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1374,17 +1483,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA76227-E3EE-4404-82DF-61B51859117F}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A28" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.88671875" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" customWidth="1"/>
     <col min="5" max="5" width="24.88671875" customWidth="1"/>
     <col min="6" max="6" width="37.109375" customWidth="1"/>
@@ -1723,6 +1832,134 @@
       </c>
       <c r="D25" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>141</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C38" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C39" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C40" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C41" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/DayWiseConente.xlsx
+++ b/DayWiseConente.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JFST124\Day3\FirstRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996BD785-C841-4165-8279-8AF6B196DA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E1EA4E-D206-480F-9CC0-7ACE3E50DB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D04D2797-0940-44A3-AF0A-8BCE4B9779F6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="166">
   <si>
     <t>Day1</t>
   </si>
@@ -498,9 +498,6 @@
     <t xml:space="preserve">Default Methods </t>
   </si>
   <si>
-    <t>Date and Time API</t>
-  </si>
-  <si>
     <t>Lamda Exressions</t>
   </si>
   <si>
@@ -598,6 +595,9 @@
   </si>
   <si>
     <t>findAny()</t>
+  </si>
+  <si>
+    <t>Date &amp; Time api</t>
   </si>
 </sst>
 </file>
@@ -688,13 +688,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1009,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A50B4F-F5E0-4E59-AF30-46E2CF7E1AC0}">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1053,7 +1053,7 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1061,37 +1061,37 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
@@ -1124,7 +1124,7 @@
       <c r="D13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F13" t="s">
@@ -1135,7 +1135,7 @@
       <c r="D14" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="9"/>
       <c r="F14" t="s">
         <v>27</v>
       </c>
@@ -1144,25 +1144,25 @@
       <c r="D15" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="9"/>
       <c r="F15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E16" s="8"/>
+      <c r="E16" s="9"/>
       <c r="F16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E17" s="8"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E18" s="8"/>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E19" s="8"/>
+      <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -1429,13 +1429,24 @@
         <v>129</v>
       </c>
       <c r="E59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>45308</v>
       </c>
+      <c r="C62" t="s">
+        <v>128</v>
+      </c>
+      <c r="D62" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="66" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D66" t="s">
@@ -1459,17 +1470,7 @@
     </row>
     <row r="70" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D71" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D72" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1836,130 +1837,130 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C28" s="3" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>151</v>
+      <c r="B30" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>138</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>144</v>
+        <v>137</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="C31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C33" s="7" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>140</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B35" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C35" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C36" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="9" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C37" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C37" s="9" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C38" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C38" s="9" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C39" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C39" s="9" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C40" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C40" s="9" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C41" s="7" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C41" s="9" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/DayWiseConente.xlsx
+++ b/DayWiseConente.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JFST124\Day3\FirstRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E1EA4E-D206-480F-9CC0-7ACE3E50DB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C24669-42EA-443E-B829-DFFF65F8C68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D04D2797-0940-44A3-AF0A-8BCE4B9779F6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="170">
   <si>
     <t>Day1</t>
   </si>
@@ -598,6 +598,18 @@
   </si>
   <si>
     <t>Date &amp; Time api</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>Database Mysql</t>
+  </si>
+  <si>
+    <t>oracle</t>
+  </si>
+  <si>
+    <t>MongoGB</t>
   </si>
 </sst>
 </file>
@@ -1009,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A50B4F-F5E0-4E59-AF30-46E2CF7E1AC0}">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1448,28 +1460,46 @@
         <v>165</v>
       </c>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>45310</v>
+      </c>
+      <c r="D65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D66" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D74" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D68" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D69" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D76" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D70" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D77" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1484,10 +1514,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA76227-E3EE-4404-82DF-61B51859117F}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A25" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1961,6 +1991,11 @@
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/DayWiseConente.xlsx
+++ b/DayWiseConente.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JFST124\Day3\FirstRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C24669-42EA-443E-B829-DFFF65F8C68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DEC2C9-6B48-46F0-8510-9167C3CE9B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D04D2797-0940-44A3-AF0A-8BCE4B9779F6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{D04D2797-0940-44A3-AF0A-8BCE4B9779F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Java" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="Angular" sheetId="2" r:id="rId3"/>
+    <sheet name="Mysql" sheetId="4" r:id="rId2"/>
+    <sheet name="Java-tables" sheetId="3" r:id="rId3"/>
+    <sheet name="Angular" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="203">
   <si>
     <t>Day1</t>
   </si>
@@ -498,9 +499,6 @@
     <t xml:space="preserve">Default Methods </t>
   </si>
   <si>
-    <t>Lamda Exressions</t>
-  </si>
-  <si>
     <t>stream</t>
   </si>
   <si>
@@ -610,13 +608,115 @@
   </si>
   <si>
     <t>MongoGB</t>
+  </si>
+  <si>
+    <t>try{},catch{},finally{}, throws, throw userdefind exceptions</t>
+  </si>
+  <si>
+    <t>Write and read data from file, read and write objects from file and property class</t>
+  </si>
+  <si>
+    <t>Try with resource, transient variables and serilization</t>
+  </si>
+  <si>
+    <t>Lamda Exressions, Prdicator,Function, Consumer and supllier</t>
+  </si>
+  <si>
+    <t>Ref in sheet1</t>
+  </si>
+  <si>
+    <t>Stream API methods</t>
+  </si>
+  <si>
+    <t>LocalDate,LocalTime. LocalDateTime,DateTimeFormatm Instanct and Duration</t>
+  </si>
+  <si>
+    <t>Mysql Installation and configuration</t>
+  </si>
+  <si>
+    <t>Nageswara@123</t>
+  </si>
+  <si>
+    <t>create database name of database</t>
+  </si>
+  <si>
+    <t>show database</t>
+  </si>
+  <si>
+    <t>use database</t>
+  </si>
+  <si>
+    <t>create table</t>
+  </si>
+  <si>
+    <t>insert data in to daable</t>
+  </si>
+  <si>
+    <t>ExecuteQuery</t>
+  </si>
+  <si>
+    <t>EXecuteUpdate</t>
+  </si>
+  <si>
+    <t>Execute</t>
+  </si>
+  <si>
+    <t>Statement</t>
+  </si>
+  <si>
+    <t>PreparedStatement</t>
+  </si>
+  <si>
+    <t>Callable Statement</t>
+  </si>
+  <si>
+    <t>ExecuteBatch</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>Insert,Update or Delete</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>count for resultset</t>
+  </si>
+  <si>
+    <t>ReasutlSet</t>
+  </si>
+  <si>
+    <t>More than one statement execute Ata time</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>select * from emp;</t>
+  </si>
+  <si>
+    <t>syntax &amp; symantics</t>
+  </si>
+  <si>
+    <t>Process the query</t>
+  </si>
+  <si>
+    <t>Fetch data</t>
+  </si>
+  <si>
+    <t>share the data</t>
+  </si>
+  <si>
+    <t>stored procedures</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -648,6 +748,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -685,10 +793,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -707,8 +816,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1023,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A50B4F-F5E0-4E59-AF30-46E2CF7E1AC0}">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1441,7 +1552,7 @@
         <v>129</v>
       </c>
       <c r="E59" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -1454,51 +1565,77 @@
       <c r="D62" t="s">
         <v>130</v>
       </c>
+      <c r="E62" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+      <c r="E63" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>45310</v>
+        <v>45309</v>
       </c>
       <c r="D65" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E65" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D66" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
+      <c r="E66" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E67" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>45310</v>
+      </c>
+      <c r="B69" t="s">
+        <v>166</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
+      <c r="D70" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D74" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D76" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
         <v>131</v>
       </c>
@@ -1508,16 +1645,62 @@
     <mergeCell ref="E3:E9"/>
     <mergeCell ref="E13:E19"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C69" r:id="rId1" xr:uid="{0730577F-9144-4977-A397-37F6AEF14F88}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E5B6E7-7A63-45FC-8D53-4461C680B2AE}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="80" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA76227-E3EE-4404-82DF-61B51859117F}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1865,137 +2048,235 @@
         <v>119</v>
       </c>
     </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C38" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C39" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C40" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C41" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>166</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>183</v>
+      </c>
+      <c r="C50" t="s">
+        <v>184</v>
+      </c>
+      <c r="D50" t="s">
+        <v>185</v>
+      </c>
+      <c r="E50" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>186</v>
+      </c>
+      <c r="B51" t="s">
+        <v>190</v>
+      </c>
+      <c r="C51" t="s">
+        <v>191</v>
+      </c>
+      <c r="D51" t="s">
+        <v>193</v>
+      </c>
+      <c r="E51" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>187</v>
+      </c>
+      <c r="B52" t="s">
+        <v>194</v>
+      </c>
+      <c r="C52" t="s">
+        <v>192</v>
+      </c>
+      <c r="D52" t="s">
+        <v>192</v>
+      </c>
+      <c r="E52" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>188</v>
+      </c>
+      <c r="B53" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>4</v>
+      </c>
+      <c r="B60" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2003,7 +2284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E70A8878-80B5-465E-AFBA-E9DD3C5EC9A2}">
   <dimension ref="A1"/>
   <sheetViews>
